--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H2">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I2">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J2">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N2">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O2">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P2">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q2">
-        <v>6.034494241143</v>
+        <v>31.332153377478</v>
       </c>
       <c r="R2">
-        <v>36.206965446858</v>
+        <v>187.992920264868</v>
       </c>
       <c r="S2">
-        <v>0.02818194540679361</v>
+        <v>0.003783938715443133</v>
       </c>
       <c r="T2">
-        <v>0.0208082494836724</v>
+        <v>0.00266490432463342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H3">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I3">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J3">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N3">
         <v>23.939497</v>
       </c>
       <c r="O3">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P3">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q3">
-        <v>24.386950138427</v>
+        <v>56.93514345850923</v>
       </c>
       <c r="R3">
-        <v>219.482551245843</v>
+        <v>512.416291126583</v>
       </c>
       <c r="S3">
-        <v>0.1138905217198734</v>
+        <v>0.006875974689847607</v>
       </c>
       <c r="T3">
-        <v>0.1261372674365544</v>
+        <v>0.007263786254886111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H4">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I4">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J4">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N4">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O4">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P4">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q4">
-        <v>23.711300276604</v>
+        <v>73.35853530141399</v>
       </c>
       <c r="R4">
-        <v>213.401702489436</v>
+        <v>660.226817712726</v>
       </c>
       <c r="S4">
-        <v>0.1107351408778168</v>
+        <v>0.008859403900236035</v>
       </c>
       <c r="T4">
-        <v>0.122642585779747</v>
+        <v>0.009359082774408113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H5">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I5">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J5">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N5">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O5">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P5">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q5">
-        <v>22.402717322661</v>
+        <v>71.00259446804083</v>
       </c>
       <c r="R5">
-        <v>134.416303935966</v>
+        <v>426.015566808245</v>
       </c>
       <c r="S5">
-        <v>0.1046238725768469</v>
+        <v>0.008574880343131846</v>
       </c>
       <c r="T5">
-        <v>0.07724944502951805</v>
+        <v>0.00603900787725894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H6">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I6">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J6">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N6">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O6">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P6">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q6">
-        <v>6.875310586942001</v>
+        <v>375.013513398522</v>
       </c>
       <c r="R6">
-        <v>61.877795282478</v>
+        <v>3375.121620586698</v>
       </c>
       <c r="S6">
-        <v>0.0321086771936747</v>
+        <v>0.04528983804806207</v>
       </c>
       <c r="T6">
-        <v>0.03556135085739816</v>
+        <v>0.04784422833685888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H7">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I7">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J7">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.653158666666667</v>
+        <v>4.383347333333333</v>
       </c>
       <c r="N7">
-        <v>13.959476</v>
+        <v>13.150042</v>
       </c>
       <c r="O7">
-        <v>0.1456542339398937</v>
+        <v>0.04894951229606984</v>
       </c>
       <c r="P7">
-        <v>0.1613165589401012</v>
+        <v>0.05171031172126829</v>
       </c>
       <c r="Q7">
-        <v>14.220392565916</v>
+        <v>31.27465576053755</v>
       </c>
       <c r="R7">
-        <v>127.983533093244</v>
+        <v>281.471901844838</v>
       </c>
       <c r="S7">
-        <v>0.06641125352700815</v>
+        <v>0.003776994811646752</v>
       </c>
       <c r="T7">
-        <v>0.07355251271512359</v>
+        <v>0.003990020940321973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H8">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I8">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J8">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N8">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O8">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P8">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q8">
-        <v>0.10745066025</v>
+        <v>356.00310176682</v>
       </c>
       <c r="R8">
-        <v>0.6447039615</v>
+        <v>2136.01861060092</v>
       </c>
       <c r="S8">
-        <v>0.00050180984852773</v>
+        <v>0.04299397821030782</v>
       </c>
       <c r="T8">
-        <v>0.0003705132619770011</v>
+        <v>0.03027925320202408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H9">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I9">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J9">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N9">
         <v>23.939497</v>
       </c>
       <c r="O9">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P9">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q9">
-        <v>0.4342358761388889</v>
+        <v>646.9101381757523</v>
       </c>
       <c r="R9">
-        <v>3.90812288525</v>
+        <v>5822.19124358177</v>
       </c>
       <c r="S9">
-        <v>0.002027943232024598</v>
+        <v>0.07812639903057089</v>
       </c>
       <c r="T9">
-        <v>0.002246009711266442</v>
+        <v>0.08253280284174315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H10">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I10">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J10">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N10">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O10">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P10">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q10">
-        <v>0.4222052036666667</v>
+        <v>833.5164772666599</v>
       </c>
       <c r="R10">
-        <v>3.799846833</v>
+        <v>7501.648295399939</v>
       </c>
       <c r="S10">
-        <v>0.001971758282421437</v>
+        <v>0.100662575926116</v>
       </c>
       <c r="T10">
-        <v>0.002183783145728052</v>
+        <v>0.1063400417213805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H11">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I11">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J11">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N11">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O11">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P11">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q11">
-        <v>0.3989044767500001</v>
+        <v>806.7477380052583</v>
       </c>
       <c r="R11">
-        <v>2.3934268605</v>
+        <v>4840.48642803155</v>
       </c>
       <c r="S11">
-        <v>0.001862940577463329</v>
+        <v>0.09742975411414216</v>
       </c>
       <c r="T11">
-        <v>0.001375509452933969</v>
+        <v>0.0686165904397693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H12">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I12">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J12">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N12">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O12">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P12">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q12">
-        <v>0.1224222996111111</v>
+        <v>4260.98941767318</v>
       </c>
       <c r="R12">
-        <v>1.1018006965</v>
+        <v>38348.90475905862</v>
       </c>
       <c r="S12">
-        <v>0.0005717295313154491</v>
+        <v>0.5145935113166117</v>
       </c>
       <c r="T12">
-        <v>0.0006332080993560744</v>
+        <v>0.5436170787356444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H13">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I13">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J13">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.653158666666667</v>
+        <v>4.383347333333333</v>
       </c>
       <c r="N13">
-        <v>13.959476</v>
+        <v>13.150042</v>
       </c>
       <c r="O13">
-        <v>0.1456542339398937</v>
+        <v>0.04894951229606984</v>
       </c>
       <c r="P13">
-        <v>0.1613165589401012</v>
+        <v>0.05171031172126829</v>
       </c>
       <c r="Q13">
-        <v>0.2532093841111112</v>
+        <v>355.3498006761355</v>
       </c>
       <c r="R13">
-        <v>2.278884457</v>
+        <v>3198.14820608522</v>
       </c>
       <c r="S13">
-        <v>0.001182523796419357</v>
+        <v>0.04291507998521299</v>
       </c>
       <c r="T13">
-        <v>0.001309681596910362</v>
+        <v>0.04533553164240008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H14">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I14">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J14">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N14">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O14">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P14">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q14">
-        <v>7.093005340149</v>
+        <v>18.726628309686</v>
       </c>
       <c r="R14">
-        <v>42.558032040894</v>
+        <v>112.359769858116</v>
       </c>
       <c r="S14">
-        <v>0.0331253426183256</v>
+        <v>0.002261587737588114</v>
       </c>
       <c r="T14">
-        <v>0.02445822612615257</v>
+        <v>0.001592762302898628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H15">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I15">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J15">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N15">
         <v>23.939497</v>
       </c>
       <c r="O15">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P15">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q15">
-        <v>28.66466693802767</v>
+        <v>34.02904538545234</v>
       </c>
       <c r="R15">
-        <v>257.982002442249</v>
+        <v>306.2614084690711</v>
       </c>
       <c r="S15">
-        <v>0.1338680668950984</v>
+        <v>0.004109638451346976</v>
       </c>
       <c r="T15">
-        <v>0.1482630152199496</v>
+        <v>0.004341426000232589</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H16">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I16">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J16">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N16">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O16">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P16">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q16">
-        <v>27.870501281972</v>
+        <v>43.844992311318</v>
       </c>
       <c r="R16">
-        <v>250.834511537748</v>
+        <v>394.604930801862</v>
       </c>
       <c r="S16">
-        <v>0.1301592004568281</v>
+        <v>0.005295096123343978</v>
       </c>
       <c r="T16">
-        <v>0.1441553311849143</v>
+        <v>0.005593744621520585</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H17">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I17">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J17">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N17">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O17">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P17">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q17">
-        <v>26.332379691423</v>
+        <v>42.4368915729275</v>
       </c>
       <c r="R17">
-        <v>157.994278148538</v>
+        <v>254.621349437565</v>
       </c>
       <c r="S17">
-        <v>0.1229759541131126</v>
+        <v>0.005125041839648628</v>
       </c>
       <c r="T17">
-        <v>0.09079977612409387</v>
+        <v>0.003609399408787043</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H18">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I18">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J18">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N18">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O18">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P18">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q18">
-        <v>8.081309345839333</v>
+        <v>224.138398402314</v>
       </c>
       <c r="R18">
-        <v>72.73178411255401</v>
+        <v>2017.245585620826</v>
       </c>
       <c r="S18">
-        <v>0.03774086272998369</v>
+        <v>0.02706886925753333</v>
       </c>
       <c r="T18">
-        <v>0.04179917014663699</v>
+        <v>0.02859557943668603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H19">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I19">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J19">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.653158666666667</v>
+        <v>4.383347333333333</v>
       </c>
       <c r="N19">
-        <v>13.959476</v>
+        <v>13.150042</v>
       </c>
       <c r="O19">
-        <v>0.1456542339398937</v>
+        <v>0.04894951229606984</v>
       </c>
       <c r="P19">
-        <v>0.1613165589401012</v>
+        <v>0.05171031172126829</v>
       </c>
       <c r="Q19">
-        <v>16.71479271972133</v>
+        <v>18.69226308466733</v>
       </c>
       <c r="R19">
-        <v>150.433134477492</v>
+        <v>168.230367762006</v>
       </c>
       <c r="S19">
-        <v>0.07806045661646614</v>
+        <v>0.0022574374992101</v>
       </c>
       <c r="T19">
-        <v>0.08645436462806723</v>
+        <v>0.002384759138546251</v>
       </c>
     </row>
   </sheetData>
